--- a/docs/bihin-app_screen-definition.xlsx
+++ b/docs/bihin-app_screen-definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvufx\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5760FBD-95EB-4A84-B706-92BF6D1B6EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B803092-DB81-45EE-9997-71BFA619CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{69FF0D5A-6623-4DA9-B299-B05CE56B37EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69FF0D5A-6623-4DA9-B299-B05CE56B37EE}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ画面" sheetId="3" r:id="rId1"/>
@@ -8647,7 +8647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E841F984-E508-4C03-866C-14489B87F238}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -10489,7 +10489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1D6E90-620A-43EC-8F84-312CAE2A1F55}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
